--- a/xlsx/公共关系_intext.xlsx
+++ b/xlsx/公共关系_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳播學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_公共关系</t>
+    <t>传播学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_公共关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E7%B7%8A%E6%80%A5%E4%BA%8B%E5%8B%99%E7%AE%A1%E7%90%86%E7%BD%B2</t>
   </si>
   <si>
-    <t>聯邦緊急事務管理署</t>
+    <t>联邦紧急事务管理署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/FEMA</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>商業機構</t>
+    <t>商业机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%89%9F%E5%88%A9%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>非牟利機構</t>
+    <t>非牟利机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>人際關係</t>
+    <t>人际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E5%AD%90</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E4%BC%AF%E5%85%A7%E6%96%AF</t>
   </si>
   <si>
-    <t>愛德華·伯內斯</t>
+    <t>爱德华·伯内斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%9D%E5%81%A5%E4%BA%BA</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E7%A6%8F%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>查爾斯·詹姆士·福克斯</t>
+    <t>查尔斯·詹姆士·福克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E4%BC%A0%E6%92%AD</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>媒體偏見</t>
+    <t>媒体偏见</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Crowd_psychology</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%A8%81%E7%88%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>歐威爾主義</t>
+    <t>欧威尔主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Persuasion</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%93%8D%E7%B8%B1%E8%A1%93</t>
   </si>
   <si>
-    <t>心理操縱術</t>
+    <t>心理操纵术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8A%A8%E4%B8%BB%E4%B9%89</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立媒體</t>
+    <t>独立媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%AF%E8%91%9B</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E4%B8%8D%E6%9C%8D%E5%BE%9E</t>
   </si>
   <si>
-    <t>公民不服從</t>
+    <t>公民不服从</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Culture_jamming</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Youth_activism</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Billboard</t>
@@ -401,25 +401,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E8%99%9B%E5%81%BD%E6%A8%99%E7%A4%BA</t>
   </si>
   <si>
-    <t>商品虛偽標示</t>
+    <t>商品虚伪标示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%9E%8B%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>資訊型廣告</t>
+    <t>资讯型广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>行動行銷</t>
+    <t>行动行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%82%B3%E6%A8%A1%E7%89%B9%E5%85%92</t>
   </si>
   <si>
-    <t>宣傳模特兒</t>
+    <t>宣传模特儿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radio_advertisement</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>廣告標語</t>
+    <t>广告标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E8%A8%80%E6%B3%95</t>
   </si>
   <si>
-    <t>證言法</t>
+    <t>证言法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>電視廣告</t>
+    <t>电视广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E6%9F%A5%E5%88%B6%E5%BA%A6</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%9B%B8</t>
   </si>
   <si>
-    <t>禁書</t>
+    <t>禁书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Broadcast_law</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%9A%E6%9B%B8%E5%9D%91%E5%84%92</t>
   </si>
   <si>
-    <t>焚書坑儒</t>
+    <t>焚书坑儒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cover-up</t>
@@ -533,25 +533,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E5%AF%A9%E6%9F%A5</t>
   </si>
   <si>
-    <t>自我審查</t>
+    <t>自我审查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E4%BD%9C%E5%8A%87</t>
   </si>
   <si>
-    <t>惡作劇</t>
+    <t>恶作剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>另類事實</t>
+    <t>另类事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9A%E4%BA%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>愚人節</t>
+    <t>愚人节</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fakelore</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E9%80%A0%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>偽造文書</t>
+    <t>伪造文书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaslighting</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%82%B3%E8%AA%AA</t>
   </si>
   <si>
-    <t>都市傳說</t>
+    <t>都市传说</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Virus_hoax</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>行銷</t>
+    <t>行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E5%85%A5%E6%80%A7%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>置入性行銷</t>
+    <t>置入性行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>市場研究</t>
+    <t>市场研究</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Word-of-mouth_marketing</t>
@@ -665,25 +665,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>新聞媒體</t>
+    <t>新闻媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%A1%8C%E8%A8%AD%E5%AE%9A</t>
   </si>
   <si>
-    <t>議題設定</t>
+    <t>议题设定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>新聞頻道</t>
+    <t>新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E9%A6%AC%E6%88%B2%E5%9C%98</t>
   </si>
   <si>
-    <t>媒體馬戲團</t>
+    <t>媒体马戏团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/24-hour_news_cycle</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MSNBC</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8A%AC%E7%99%BB%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>哈芬登郵報</t>
+    <t>哈芬登邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>資訊娛樂</t>
+    <t>资讯娱乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managing_the_news</t>
@@ -737,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%AA%9E_(%E4%B8%80%E4%B9%9D%E5%85%AB%E5%9B%9B)</t>
   </si>
   <si>
-    <t>新語 (一九八四)</t>
+    <t>新语 (一九八四)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Media_event</t>
@@ -767,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>政治運動</t>
+    <t>政治运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>政治廣告</t>
+    <t>政治广告</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Astroturfing</t>
@@ -797,13 +797,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E6%9A%97%E6%AE%BA</t>
   </si>
   <si>
-    <t>人格暗殺</t>
+    <t>人格暗杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%85%E5%8A%9B%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>魅力攻勢</t>
+    <t>魅力攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%97%E5%93%A8%E6%94%BF%E6%B2%BB</t>
@@ -863,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%A3%E5%82%B3</t>
   </si>
   <si>
-    <t>政治宣傳</t>
+    <t>政治宣传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E7%9C%BE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>從眾效應</t>
+    <t>从众效应</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Crowd_manipulation</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%86%E6%9E%B6_(%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>框架 (社會科學)</t>
+    <t>框架 (社会科学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indoctrination</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%88%B0</t>
   </si>
   <si>
-    <t>心理戰</t>
+    <t>心理战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Airborne_leaflet_propaganda</t>
@@ -947,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E7%B8%B1%E9%9A%8A</t>
   </si>
   <si>
-    <t>第五縱隊</t>
+    <t>第五纵队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>資訊戰</t>
+    <t>资讯战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lawfare</t>
@@ -983,19 +983,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9B%E8%A6%86</t>
   </si>
   <si>
-    <t>顛覆</t>
+    <t>颠复</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>個人崇拜</t>
+    <t>个人崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%A8%80%E5%B7%A7%E8%AA%9E</t>
   </si>
   <si>
-    <t>雙言巧語</t>
+    <t>双言巧语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Non-apology_apology</t>
@@ -1013,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sound_bite</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%8C%96%E5%A6%9D%E5%B8%AB</t>
   </si>
   <si>
-    <t>政治化妝師</t>
+    <t>政治化妆师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transfer_(propaganda)</t>
@@ -1091,13 +1091,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E9%8A%B7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>促銷活動</t>
+    <t>促销活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/公共关系_intext.xlsx
+++ b/xlsx/公共关系_intext.xlsx
@@ -29,7 +29,7 @@
     <t>傳播學</t>
   </si>
   <si>
-    <t>政策_政策_政治學_公共关系</t>
+    <t>体育运动_体育运动_大众媒体_公共关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
